--- a/001GlobalNetTest/raw_data_excel.xlsx
+++ b/001GlobalNetTest/raw_data_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Crawler4Caida\001GlobalNetTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07C1708-4E53-4AFB-92C3-53F36E9F3D41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E0E979-F43C-41DB-93D5-98CE184FBB74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6885" yWindow="4395" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模板文件" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>新加坡</t>
   </si>
   <si>
-    <t xml:space="preserve"> 180.210.206.51</t>
-  </si>
-  <si>
     <t>马来西亚</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
   </si>
   <si>
     <t>葡萄牙</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 188.208.143.109</t>
   </si>
   <si>
     <t>芬兰</t>
@@ -237,6 +231,14 @@
   </si>
   <si>
     <t>149.129.138.11</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>188.208.143.109</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>180.210.206.51</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -830,9 +832,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1192,24 +1197,24 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="26.875" customWidth="1"/>
-    <col min="3" max="3" width="30.75" customWidth="1"/>
+    <col min="3" max="3" width="30.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1219,8 +1224,8 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
+      <c r="C2" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1228,10 +1233,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1239,10 +1244,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1250,10 +1255,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1261,10 +1266,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1272,10 +1277,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>68</v>
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1283,10 +1288,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>67</v>
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1294,10 +1299,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1305,10 +1310,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1316,10 +1321,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>66</v>
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1327,10 +1332,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1338,10 +1343,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1349,10 +1354,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1360,10 +1365,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>65</v>
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1371,10 +1376,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>64</v>
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1382,10 +1387,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1393,10 +1398,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1404,10 +1409,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>63</v>
+        <v>28</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1415,10 +1420,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1426,10 +1431,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1437,10 +1442,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" t="s">
-        <v>62</v>
+        <v>33</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1448,10 +1453,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1459,10 +1464,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1470,10 +1475,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>61</v>
+        <v>37</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1481,10 +1486,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1492,10 +1497,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1503,10 +1508,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" t="s">
-        <v>60</v>
+        <v>42</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1514,10 +1519,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" t="s">
-        <v>59</v>
+        <v>43</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1525,10 +1530,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" t="s">
-        <v>58</v>
+        <v>44</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1536,10 +1541,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1547,10 +1552,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1558,10 +1563,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1569,10 +1574,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
